--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H2">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I2">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J2">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.47780866666666</v>
+        <v>22.720324</v>
       </c>
       <c r="N2">
-        <v>91.433426</v>
+        <v>68.160972</v>
       </c>
       <c r="O2">
-        <v>0.9838017987059956</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P2">
-        <v>0.9848051540204799</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q2">
-        <v>472.4678128515006</v>
+        <v>276.384880227896</v>
       </c>
       <c r="R2">
-        <v>4252.210315663506</v>
+        <v>2487.463922051064</v>
       </c>
       <c r="S2">
-        <v>0.01666751744987733</v>
+        <v>0.01631088277426319</v>
       </c>
       <c r="T2">
-        <v>0.01807087438618132</v>
+        <v>0.01662852594699047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H3">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I3">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J3">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.133237</v>
       </c>
       <c r="O3">
-        <v>0.001433598258192696</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P3">
-        <v>0.001435060349879339</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q3">
-        <v>0.6884811904663333</v>
+        <v>0.5402606683326666</v>
       </c>
       <c r="R3">
-        <v>6.196330714197</v>
+        <v>4.862346014993999</v>
       </c>
       <c r="S3">
-        <v>2.4287945006778E-05</v>
+        <v>3.188354016128913E-05</v>
       </c>
       <c r="T3">
-        <v>2.633291998258537E-05</v>
+        <v>3.250445007737226E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H4">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I4">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J4">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.00569</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N4">
-        <v>0.01707</v>
+        <v>0.019604</v>
       </c>
       <c r="O4">
-        <v>0.0001836691179428336</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P4">
-        <v>0.0001838564375694463</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q4">
-        <v>0.08820653363</v>
+        <v>0.07949195900533333</v>
       </c>
       <c r="R4">
-        <v>0.79385880267</v>
+        <v>0.7154276310479999</v>
       </c>
       <c r="S4">
-        <v>3.111712371681293E-06</v>
+        <v>4.691226320931213E-06</v>
       </c>
       <c r="T4">
-        <v>3.373709585946337E-06</v>
+        <v>4.782584712330703E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.502027</v>
+        <v>12.164654</v>
       </c>
       <c r="H5">
-        <v>46.506081</v>
+        <v>36.493962</v>
       </c>
       <c r="I5">
-        <v>0.01694194650975459</v>
+        <v>0.01645466237598477</v>
       </c>
       <c r="J5">
-        <v>0.01834969517818498</v>
+        <v>0.01673867469867156</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,43 +744,43 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0946895</v>
+        <v>0.1493315</v>
       </c>
       <c r="N5">
-        <v>0.189379</v>
+        <v>0.298663</v>
       </c>
       <c r="O5">
-        <v>0.003056509128901219</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P5">
-        <v>0.002039750925041838</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q5">
-        <v>1.4678791856165</v>
+        <v>1.816566028801</v>
       </c>
       <c r="R5">
-        <v>8.807275113698999</v>
+        <v>10.899396172806</v>
       </c>
       <c r="S5">
-        <v>5.178321416842105E-05</v>
+        <v>0.0001072048352393603</v>
       </c>
       <c r="T5">
-        <v>3.742880771393857E-05</v>
+        <v>7.286171689139078E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.502027</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H6">
-        <v>46.506081</v>
+        <v>2063.880676</v>
       </c>
       <c r="I6">
-        <v>0.01694194650975459</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J6">
-        <v>0.01834969517818498</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3570223333333333</v>
+        <v>22.720324</v>
       </c>
       <c r="N6">
-        <v>1.071067</v>
+        <v>68.160972</v>
       </c>
       <c r="O6">
-        <v>0.0115244247889676</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P6">
-        <v>0.01153617826702954</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q6">
-        <v>5.534569850936333</v>
+        <v>15630.67921868634</v>
       </c>
       <c r="R6">
-        <v>49.811128658427</v>
+        <v>140676.1129681771</v>
       </c>
       <c r="S6">
-        <v>0.0001952461883303789</v>
+        <v>0.9224461779815263</v>
       </c>
       <c r="T6">
-        <v>0.0002116853547211943</v>
+        <v>0.9404101799732849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>687.9602253333334</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H7">
         <v>2063.880676</v>
       </c>
       <c r="I7">
-        <v>0.751862020265869</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J7">
-        <v>0.8143361142115235</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>30.47780866666666</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N7">
-        <v>91.433426</v>
+        <v>0.133237</v>
       </c>
       <c r="O7">
-        <v>0.9838017987059956</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P7">
-        <v>0.9848051540204799</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q7">
-        <v>20967.52011798622</v>
+        <v>30.55391884757911</v>
       </c>
       <c r="R7">
-        <v>188707.681061876</v>
+        <v>274.9852696282119</v>
       </c>
       <c r="S7">
-        <v>0.7396832079162856</v>
+        <v>0.00180314273416941</v>
       </c>
       <c r="T7">
-        <v>0.8019624023805185</v>
+        <v>0.001838257693113598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>687.9602253333334</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H8">
         <v>2063.880676</v>
       </c>
       <c r="I8">
-        <v>0.751862020265869</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J8">
-        <v>0.8143361142115235</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04441233333333333</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N8">
-        <v>0.133237</v>
+        <v>0.019604</v>
       </c>
       <c r="O8">
-        <v>0.001433598258192696</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P8">
-        <v>0.001435060349879339</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q8">
-        <v>30.55391884757911</v>
+        <v>4.495590752478222</v>
       </c>
       <c r="R8">
-        <v>274.985269628212</v>
+        <v>40.460316772304</v>
       </c>
       <c r="S8">
-        <v>0.001077868082654391</v>
+        <v>0.0002653077610622959</v>
       </c>
       <c r="T8">
-        <v>0.00116862146897977</v>
+        <v>0.0002704744464060207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>687.9602253333334</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H9">
         <v>2063.880676</v>
       </c>
       <c r="I9">
-        <v>0.751862020265869</v>
+        <v>0.9305774941043453</v>
       </c>
       <c r="J9">
-        <v>0.8143361142115235</v>
+        <v>0.9466395359440105</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.00569</v>
+        <v>0.1493315</v>
       </c>
       <c r="N9">
-        <v>0.01707</v>
+        <v>0.298663</v>
       </c>
       <c r="O9">
-        <v>0.0001836691179428336</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P9">
-        <v>0.0001838564375694463</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q9">
-        <v>3.914493682146666</v>
+        <v>102.7341323893647</v>
       </c>
       <c r="R9">
-        <v>35.23044313932</v>
+        <v>616.4047943361879</v>
       </c>
       <c r="S9">
-        <v>0.000138093834076949</v>
+        <v>0.006062865627587366</v>
       </c>
       <c r="T9">
-        <v>0.0001497209369430765</v>
+        <v>0.004120623831205946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>687.9602253333334</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H10">
-        <v>2063.880676</v>
+        <v>2.701849</v>
       </c>
       <c r="I10">
-        <v>0.751862020265869</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J10">
-        <v>0.8143361142115235</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0946895</v>
+        <v>22.720324</v>
       </c>
       <c r="N10">
-        <v>0.189379</v>
+        <v>68.160972</v>
       </c>
       <c r="O10">
-        <v>0.003056509128901219</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P10">
-        <v>0.002039750925041838</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q10">
-        <v>65.14260975670067</v>
+        <v>20.46229489302533</v>
       </c>
       <c r="R10">
-        <v>390.855658540204</v>
+        <v>184.160654037228</v>
       </c>
       <c r="S10">
-        <v>0.002298073128616742</v>
+        <v>0.00120758448514744</v>
       </c>
       <c r="T10">
-        <v>0.001661042842257931</v>
+        <v>0.00123110135866723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>687.9602253333334</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H11">
-        <v>2063.880676</v>
+        <v>2.701849</v>
       </c>
       <c r="I11">
-        <v>0.751862020265869</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J11">
-        <v>0.8143361142115235</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3570223333333333</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N11">
-        <v>1.071067</v>
+        <v>0.133237</v>
       </c>
       <c r="O11">
-        <v>0.0115244247889676</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P11">
-        <v>0.01153617826702954</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q11">
-        <v>245.6171648890325</v>
+        <v>0.03999847280144445</v>
       </c>
       <c r="R11">
-        <v>2210.554484001292</v>
+        <v>0.359986255213</v>
       </c>
       <c r="S11">
-        <v>0.008664777304235241</v>
+        <v>2.360514079047896E-06</v>
       </c>
       <c r="T11">
-        <v>0.009394326582824261</v>
+        <v>2.406483459841883E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.698403</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H12">
-        <v>2.095209</v>
+        <v>2.701849</v>
       </c>
       <c r="I12">
-        <v>0.0007632747813077693</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J12">
-        <v>0.0008266971900855241</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>30.47780866666666</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N12">
-        <v>91.433426</v>
+        <v>0.019604</v>
       </c>
       <c r="O12">
-        <v>0.9838017987059956</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P12">
-        <v>0.9848051540204799</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q12">
-        <v>21.285793006226</v>
+        <v>0.005885227532888889</v>
       </c>
       <c r="R12">
-        <v>191.572137056034</v>
+        <v>0.05296704779600001</v>
       </c>
       <c r="S12">
-        <v>0.0007509111027575089</v>
+        <v>3.473173218074179E-07</v>
       </c>
       <c r="T12">
-        <v>0.0008141356536104725</v>
+        <v>3.540810866856824E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.698403</v>
+        <v>0.9006163333333334</v>
       </c>
       <c r="H13">
-        <v>2.095209</v>
+        <v>2.701849</v>
       </c>
       <c r="I13">
-        <v>0.0007632747813077693</v>
+        <v>0.001218229280939463</v>
       </c>
       <c r="J13">
-        <v>0.0008266971900855241</v>
+        <v>0.001239256277406412</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.04441233333333333</v>
+        <v>0.1493315</v>
       </c>
       <c r="N13">
-        <v>0.133237</v>
+        <v>0.298663</v>
       </c>
       <c r="O13">
-        <v>0.001433598258192696</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P13">
-        <v>0.001435060349879339</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q13">
-        <v>0.031017706837</v>
+        <v>0.1344903879811667</v>
       </c>
       <c r="R13">
-        <v>0.279159361533</v>
+        <v>0.806942327887</v>
       </c>
       <c r="S13">
-        <v>1.094229397005229E-06</v>
+        <v>7.936964391167788E-06</v>
       </c>
       <c r="T13">
-        <v>1.186360358848399E-06</v>
+        <v>5.394354192654864E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.698403</v>
+        <v>37.6312075</v>
       </c>
       <c r="H14">
-        <v>2.095209</v>
+        <v>75.262415</v>
       </c>
       <c r="I14">
-        <v>0.0007632747813077693</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J14">
-        <v>0.0008266971900855241</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.00569</v>
+        <v>22.720324</v>
       </c>
       <c r="N14">
-        <v>0.01707</v>
+        <v>68.160972</v>
       </c>
       <c r="O14">
-        <v>0.0001836691179428336</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P14">
-        <v>0.0001838564375694463</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q14">
-        <v>0.00397391307</v>
+        <v>854.9932269112301</v>
       </c>
       <c r="R14">
-        <v>0.03576521763</v>
+        <v>5129.95936146738</v>
       </c>
       <c r="S14">
-        <v>1.401900058308072E-07</v>
+        <v>0.05045751520647226</v>
       </c>
       <c r="T14">
-        <v>1.519936003177959E-07</v>
+        <v>0.03429342696911518</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.698403</v>
+        <v>37.6312075</v>
       </c>
       <c r="H15">
-        <v>2.095209</v>
+        <v>75.262415</v>
       </c>
       <c r="I15">
-        <v>0.0007632747813077693</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J15">
-        <v>0.0008266971900855241</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.0946895</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N15">
-        <v>0.189379</v>
+        <v>0.133237</v>
       </c>
       <c r="O15">
-        <v>0.003056509128901219</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P15">
-        <v>0.002039750925041838</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q15">
-        <v>0.0661314308685</v>
+        <v>1.671289731225833</v>
       </c>
       <c r="R15">
-        <v>0.396788585211</v>
+        <v>10.027738387355</v>
       </c>
       <c r="S15">
-        <v>2.332956336927279E-06</v>
+        <v>9.863133925914003E-05</v>
       </c>
       <c r="T15">
-        <v>1.686256358206436E-06</v>
+        <v>6.70347442974258E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.698403</v>
+        <v>37.6312075</v>
       </c>
       <c r="H16">
-        <v>2.095209</v>
+        <v>75.262415</v>
       </c>
       <c r="I16">
-        <v>0.0007632747813077693</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J16">
-        <v>0.0008266971900855241</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3570223333333333</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N16">
-        <v>1.071067</v>
+        <v>0.019604</v>
       </c>
       <c r="O16">
-        <v>0.0115244247889676</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P16">
-        <v>0.01153617826702954</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q16">
-        <v>0.249345468667</v>
+        <v>0.2459073972766667</v>
       </c>
       <c r="R16">
-        <v>2.244109218003</v>
+        <v>1.47544438366</v>
       </c>
       <c r="S16">
-        <v>8.79630281049708E-06</v>
+        <v>1.451225091255568E-05</v>
       </c>
       <c r="T16">
-        <v>9.536926157679008E-06</v>
+        <v>9.863244648308919E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>210.592407</v>
+        <v>37.6312075</v>
       </c>
       <c r="H17">
-        <v>421.184814</v>
+        <v>75.262415</v>
       </c>
       <c r="I17">
-        <v>0.230153469269178</v>
+        <v>0.05090229563562809</v>
       </c>
       <c r="J17">
-        <v>0.1661849974109953</v>
+        <v>0.03452058950796899</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>30.47780866666666</v>
+        <v>0.1493315</v>
       </c>
       <c r="N17">
-        <v>91.433426</v>
+        <v>0.298663</v>
       </c>
       <c r="O17">
-        <v>0.9838017987059956</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P17">
-        <v>0.9848051540204799</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q17">
-        <v>6418.395087198793</v>
+        <v>5.619524662786251</v>
       </c>
       <c r="R17">
-        <v>38510.37052319276</v>
+        <v>22.478098651145</v>
       </c>
       <c r="S17">
-        <v>0.2264253970454424</v>
+        <v>0.0003316368389841321</v>
       </c>
       <c r="T17">
-        <v>0.1636598419712283</v>
+        <v>0.0001502645499080742</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>210.592407</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H18">
-        <v>421.184814</v>
+        <v>1.879225</v>
       </c>
       <c r="I18">
-        <v>0.230153469269178</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J18">
-        <v>0.1661849974109953</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04441233333333333</v>
+        <v>22.720324</v>
       </c>
       <c r="N18">
-        <v>0.133237</v>
+        <v>68.160972</v>
       </c>
       <c r="O18">
-        <v>0.001433598258192696</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P18">
-        <v>0.001435060349879339</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q18">
-        <v>9.352900177152998</v>
+        <v>14.23220028963333</v>
       </c>
       <c r="R18">
-        <v>56.11740106291799</v>
+        <v>128.0898026067</v>
       </c>
       <c r="S18">
-        <v>0.0003299476126612997</v>
+        <v>0.000839914796904341</v>
       </c>
       <c r="T18">
-        <v>0.00023848550052932</v>
+        <v>0.0008562715572711222</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>210.592407</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H19">
-        <v>421.184814</v>
+        <v>1.879225</v>
       </c>
       <c r="I19">
-        <v>0.230153469269178</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J19">
-        <v>0.1661849974109953</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,33 +1612,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.00569</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N19">
-        <v>0.01707</v>
+        <v>0.133237</v>
       </c>
       <c r="O19">
-        <v>0.0001836691179428336</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P19">
-        <v>0.0001838564375694463</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q19">
-        <v>1.19827079583</v>
+        <v>0.02782025570277778</v>
       </c>
       <c r="R19">
-        <v>7.189624774979999</v>
+        <v>0.250382301325</v>
       </c>
       <c r="S19">
-        <v>4.227208469215297E-05</v>
+        <v>1.64181531617747E-06</v>
       </c>
       <c r="T19">
-        <v>3.055418160147325E-05</v>
+        <v>1.673788535118491E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>210.592407</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H20">
-        <v>421.184814</v>
+        <v>1.879225</v>
       </c>
       <c r="I20">
-        <v>0.230153469269178</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J20">
-        <v>0.1661849974109953</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.0946895</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N20">
-        <v>0.189379</v>
+        <v>0.019604</v>
       </c>
       <c r="O20">
-        <v>0.003056509128901219</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P20">
-        <v>0.002039750925041838</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q20">
-        <v>19.9408897226265</v>
+        <v>0.004093369655555556</v>
       </c>
       <c r="R20">
-        <v>79.76355889050599</v>
+        <v>0.0368403269</v>
       </c>
       <c r="S20">
-        <v>0.0007034661798695288</v>
+        <v>2.415706407254975E-07</v>
       </c>
       <c r="T20">
-        <v>0.0003389760021971531</v>
+        <v>2.462750620508035E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>210.592407</v>
+        <v>0.6264083333333333</v>
       </c>
       <c r="H21">
-        <v>421.184814</v>
+        <v>1.879225</v>
       </c>
       <c r="I21">
-        <v>0.230153469269178</v>
+        <v>0.0008473186031023426</v>
       </c>
       <c r="J21">
-        <v>0.1661849974109953</v>
+        <v>0.0008619435719424233</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M21">
-        <v>0.3570223333333333</v>
+        <v>0.1493315</v>
       </c>
       <c r="N21">
-        <v>1.071067</v>
+        <v>0.298663</v>
       </c>
       <c r="O21">
-        <v>0.0115244247889676</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P21">
-        <v>0.01153617826702954</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q21">
-        <v>75.186192529423</v>
+        <v>0.09354249602916667</v>
       </c>
       <c r="R21">
-        <v>451.1171551765379</v>
+        <v>0.561254976175</v>
       </c>
       <c r="S21">
-        <v>0.002652386346512608</v>
+        <v>5.5204202410987E-06</v>
       </c>
       <c r="T21">
-        <v>0.001917139755439084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.255552</v>
-      </c>
-      <c r="H22">
-        <v>0.766656</v>
-      </c>
-      <c r="I22">
-        <v>0.0002792891738906664</v>
-      </c>
-      <c r="J22">
-        <v>0.000302496009210636</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>30.47780866666666</v>
-      </c>
-      <c r="N22">
-        <v>91.433426</v>
-      </c>
-      <c r="O22">
-        <v>0.9838017987059956</v>
-      </c>
-      <c r="P22">
-        <v>0.9848051540204799</v>
-      </c>
-      <c r="Q22">
-        <v>7.788664960384</v>
-      </c>
-      <c r="R22">
-        <v>70.097984643456</v>
-      </c>
-      <c r="S22">
-        <v>0.0002747651916327492</v>
-      </c>
-      <c r="T22">
-        <v>0.0002978996289412609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.255552</v>
-      </c>
-      <c r="H23">
-        <v>0.766656</v>
-      </c>
-      <c r="I23">
-        <v>0.0002792891738906664</v>
-      </c>
-      <c r="J23">
-        <v>0.000302496009210636</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.04441233333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.133237</v>
-      </c>
-      <c r="O23">
-        <v>0.001433598258192696</v>
-      </c>
-      <c r="P23">
-        <v>0.001435060349879339</v>
-      </c>
-      <c r="Q23">
-        <v>0.011349660608</v>
-      </c>
-      <c r="R23">
-        <v>0.102146945472</v>
-      </c>
-      <c r="S23">
-        <v>4.003884732217362E-07</v>
-      </c>
-      <c r="T23">
-        <v>4.341000288149191E-07</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.255552</v>
-      </c>
-      <c r="H24">
-        <v>0.766656</v>
-      </c>
-      <c r="I24">
-        <v>0.0002792891738906664</v>
-      </c>
-      <c r="J24">
-        <v>0.000302496009210636</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.00569</v>
-      </c>
-      <c r="N24">
-        <v>0.01707</v>
-      </c>
-      <c r="O24">
-        <v>0.0001836691179428336</v>
-      </c>
-      <c r="P24">
-        <v>0.0001838564375694463</v>
-      </c>
-      <c r="Q24">
-        <v>0.00145409088</v>
-      </c>
-      <c r="R24">
-        <v>0.01308681792</v>
-      </c>
-      <c r="S24">
-        <v>5.129679621948134E-08</v>
-      </c>
-      <c r="T24">
-        <v>5.561583863244196E-08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.255552</v>
-      </c>
-      <c r="H25">
-        <v>0.766656</v>
-      </c>
-      <c r="I25">
-        <v>0.0002792891738906664</v>
-      </c>
-      <c r="J25">
-        <v>0.000302496009210636</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.0946895</v>
-      </c>
-      <c r="N25">
-        <v>0.189379</v>
-      </c>
-      <c r="O25">
-        <v>0.003056509128901219</v>
-      </c>
-      <c r="P25">
-        <v>0.002039750925041838</v>
-      </c>
-      <c r="Q25">
-        <v>0.024198091104</v>
-      </c>
-      <c r="R25">
-        <v>0.145188546624</v>
-      </c>
-      <c r="S25">
-        <v>8.536499096001018E-07</v>
-      </c>
-      <c r="T25">
-        <v>6.170165146088592E-07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.255552</v>
-      </c>
-      <c r="H26">
-        <v>0.766656</v>
-      </c>
-      <c r="I26">
-        <v>0.0002792891738906664</v>
-      </c>
-      <c r="J26">
-        <v>0.000302496009210636</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.3570223333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.071067</v>
-      </c>
-      <c r="O26">
-        <v>0.0115244247889676</v>
-      </c>
-      <c r="P26">
-        <v>0.01153617826702954</v>
-      </c>
-      <c r="Q26">
-        <v>0.091237771328</v>
-      </c>
-      <c r="R26">
-        <v>0.821139941952</v>
-      </c>
-      <c r="S26">
-        <v>3.218647078875878E-06</v>
-      </c>
-      <c r="T26">
-        <v>3.489647887318906E-06</v>
+        <v>3.751951074131765E-06</v>
       </c>
     </row>
   </sheetData>
